--- a/Uncle-Tay-House/doc/debug-var.xlsx
+++ b/Uncle-Tay-House/doc/debug-var.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonatasd\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\_code\python-games\Uncle-Tay-House\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DB87D27-F2F7-4291-897A-5F084FA1119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71EAAC-CB64-4492-8EE7-F0BF98312231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31044" yWindow="336" windowWidth="21888" windowHeight="15996" xr2:uid="{8376A81E-080E-4404-8424-3751117D4509}"/>
+    <workbookView xWindow="10956" yWindow="684" windowWidth="19356" windowHeight="11412" xr2:uid="{8376A81E-080E-4404-8424-3751117D4509}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>MOVE</t>
   </si>
@@ -92,14 +92,44 @@
     <t>ITEMOFF</t>
   </si>
   <si>
-    <t>ARG-ITEMOFF</t>
+    <t>COMM</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>MVARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARG - </t>
+  </si>
+  <si>
+    <t>ARG -</t>
+  </si>
+  <si>
+    <t>inptk(2) -</t>
+  </si>
+  <si>
+    <t>inptk(3) -</t>
+  </si>
+  <si>
+    <t>COUCH</t>
+  </si>
+  <si>
+    <t>BRACE</t>
+  </si>
+  <si>
+    <t>inptk(1)</t>
+  </si>
+  <si>
+    <t>AIMM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,16 +137,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,12 +194,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,9 +265,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,7 +305,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -294,7 +411,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,7 +553,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,19 +561,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1EF1F9-62D7-4E3E-BD62-A90D9CDCDADD}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="6" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -464,37 +586,100 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>33</v>
+      </c>
+      <c r="L2">
+        <v>33</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+      <c r="D3"/>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -504,119 +689,241 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>54</v>
       </c>
-      <c r="F6">
-        <v>73</v>
+      <c r="F6" s="9">
+        <v>37</v>
       </c>
       <c r="G6">
-        <f>D6-$B$3</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <f>E6-$B$3</f>
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <f>E6-$B$2</f>
+        <v>24</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9">
+        <f>D6</f>
+        <v>26</v>
+      </c>
+      <c r="K6" s="9">
+        <f>E6-$B$3</f>
+        <v>21</v>
+      </c>
+      <c r="L6" s="9">
+        <f>F6-$B$3</f>
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f>K6-$B$3</f>
+        <v>-12</v>
+      </c>
+      <c r="N6" s="1">
+        <f>E6-$B$2</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>55</v>
+      </c>
+      <c r="F7" s="9">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <f>E7-$B$3</f>
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <f>E7-$B$2</f>
+        <v>25</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="9">
+        <f>D7</f>
+        <v>26</v>
+      </c>
+      <c r="K7" s="9">
+        <f>E7-$B$3</f>
+        <v>22</v>
+      </c>
+      <c r="L7" s="9">
+        <f>F7-$B$3</f>
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M12" si="0">K7-$B$3</f>
+        <v>-11</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" ref="N7:N12" si="1">E7-$B$2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="10">
         <v>27</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="10">
         <v>31</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="10">
         <v>57</v>
       </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G11" si="0">D7-$B$3</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="G8" s="3">
+        <f t="shared" ref="G8:G12" si="2">E8-$B$3</f>
+        <v>-2</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" ref="H8:H12" si="3">E8-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" ref="J8:J12" si="4">D8</f>
+        <v>27</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" ref="K8:K12" si="5">E8-$B$3</f>
+        <v>-2</v>
+      </c>
+      <c r="L8" s="12">
+        <f>F8-$B$3</f>
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="10">
         <v>27</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="10">
         <v>32</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="10">
         <v>57</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L9" s="12">
+        <f>F9-$B$3</f>
+        <v>24</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+        <v>-34</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="10">
         <v>27</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="10">
         <v>33</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="10">
         <v>57</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" ref="L10:L12" si="6">F10-$B$3</f>
+        <v>24</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+        <v>-33</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>59</v>
-      </c>
-      <c r="F10">
-        <v>48</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -624,21 +931,96 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9">
+        <v>59</v>
+      </c>
+      <c r="F11" s="9">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="E11">
+      <c r="I11" s="7"/>
+      <c r="J11" s="9">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9">
+        <v>29</v>
+      </c>
+      <c r="E12" s="9">
         <v>59</v>
       </c>
-      <c r="F11">
+      <c r="F12" s="9">
         <v>48</v>
       </c>
-      <c r="G11">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="9">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-7</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>